--- a/database.xlsx
+++ b/database.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="UserInfor" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="Data" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="UserInfor" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Hung</t>
   </si>
@@ -35,6 +30,21 @@
   </si>
   <si>
     <t>Nguyen Van</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ASasAS</t>
+  </si>
+  <si>
+    <t>asASas</t>
+  </si>
+  <si>
+    <t>werwerwer</t>
+  </si>
+  <si>
+    <t>werwer</t>
   </si>
 </sst>
 </file>
@@ -43,11 +53,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -354,11 +364,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -381,11 +391,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -415,6 +427,50 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -15,36 +15,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
   <si>
     <t>Hung</t>
   </si>
   <si>
-    <t>Nguyen Huu Thanh</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>haha</t>
-  </si>
-  <si>
-    <t>Nguyen Van</t>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>Huu Thanh</t>
+  </si>
+  <si>
+    <t>Hung123123</t>
+  </si>
+  <si>
+    <t>123123</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>ASasAS</t>
-  </si>
-  <si>
-    <t>asASas</t>
-  </si>
-  <si>
-    <t>werwerwer</t>
-  </si>
-  <si>
-    <t>werwer</t>
+    <t>Hung123</t>
+  </si>
+  <si>
+    <t>weqwe</t>
+  </si>
+  <si>
+    <t>21312312</t>
   </si>
 </sst>
 </file>
@@ -391,10 +400,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
@@ -403,72 +412,70 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1234</v>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Data" state="visible" r:id="rId4"/>
@@ -15,7 +15,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="17">
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>1|1|16</t>
+  </si>
+  <si>
+    <t>1|1|46</t>
+  </si>
+  <si>
+    <t>1|1|48</t>
+  </si>
+  <si>
+    <t>1|1|53</t>
+  </si>
+  <si>
+    <t>1|20|39</t>
+  </si>
+  <si>
+    <t>1|20|42</t>
+  </si>
+  <si>
+    <t>1|20|43</t>
+  </si>
   <si>
     <t>UserName</t>
   </si>
@@ -36,24 +66,6 @@
   </si>
   <si>
     <t>Huu Thanh</t>
-  </si>
-  <si>
-    <t>Hung123123</t>
-  </si>
-  <si>
-    <t>123123</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Hung123</t>
-  </si>
-  <si>
-    <t>weqwe</t>
-  </si>
-  <si>
-    <t>21312312</t>
   </si>
 </sst>
 </file>
@@ -371,111 +383,1178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>4</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>17</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>17</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>17</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>16</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <v>16</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>14</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>12</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75">
+        <v>14</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76">
+        <v>14</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77">
+        <v>7</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82">
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83">
+        <v>16</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84">
+        <v>17</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89">
+        <v>7</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95">
+        <v>8</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97">
+        <v>16</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100">
+        <v>16</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101">
+        <v>15</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="12">
   <si>
     <t>Time</t>
   </si>
@@ -26,25 +26,10 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>1|1|16</t>
+    <t>2|13h 37m</t>
   </si>
   <si>
-    <t>1|1|46</t>
-  </si>
-  <si>
-    <t>1|1|48</t>
-  </si>
-  <si>
-    <t>1|1|53</t>
-  </si>
-  <si>
-    <t>1|20|39</t>
-  </si>
-  <si>
-    <t>1|20|42</t>
-  </si>
-  <si>
-    <t>1|20|43</t>
+    <t>2|14h 12m</t>
   </si>
   <si>
     <t>UserName</t>
@@ -383,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C218"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C509" sqref="C509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
@@ -407,10 +392,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -418,10 +403,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -429,10 +414,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -440,10 +425,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -451,10 +436,10 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -462,10 +447,10 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -473,10 +458,10 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -484,10 +469,10 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -498,7 +483,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -506,10 +491,10 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -517,10 +502,10 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -528,10 +513,10 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -539,10 +524,10 @@
         <v>3</v>
       </c>
       <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
         <v>7</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -550,10 +535,10 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -561,10 +546,10 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -572,10 +557,10 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -583,10 +568,10 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -594,10 +579,10 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -605,10 +590,10 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -616,10 +601,10 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -630,7 +615,7 @@
         <v>12</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -638,10 +623,10 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -649,10 +634,10 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -660,10 +645,10 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -671,10 +656,10 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -682,10 +667,10 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -693,10 +678,10 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -704,10 +689,10 @@
         <v>3</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -715,10 +700,10 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -726,10 +711,10 @@
         <v>3</v>
       </c>
       <c r="B31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -737,10 +722,10 @@
         <v>3</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -748,10 +733,10 @@
         <v>3</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -759,10 +744,10 @@
         <v>3</v>
       </c>
       <c r="B34">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -770,10 +755,10 @@
         <v>3</v>
       </c>
       <c r="B35">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -781,10 +766,10 @@
         <v>3</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -792,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -806,7 +791,7 @@
         <v>3</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -814,10 +799,10 @@
         <v>3</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -825,10 +810,10 @@
         <v>3</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -836,10 +821,10 @@
         <v>3</v>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -847,10 +832,10 @@
         <v>3</v>
       </c>
       <c r="B42">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -858,659 +843,1935 @@
         <v>3</v>
       </c>
       <c r="B43">
+        <v>13</v>
+      </c>
+      <c r="C43">
         <v>7</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46">
         <v>4</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
       <c r="C46">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B50">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="C51">
         <v>7</v>
-      </c>
-      <c r="C51">
-        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B56">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B57">
         <v>9</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B58">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B60">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B61">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B62">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B64">
         <v>8</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68">
         <v>6</v>
-      </c>
-      <c r="B68">
-        <v>5</v>
-      </c>
-      <c r="C68">
-        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B69">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B72">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B73">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B75">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B76">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B77">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B78">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B79">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B80">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B82">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B83">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B84">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B85">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87">
         <v>9</v>
       </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
       <c r="C87">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B88">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B89">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B91">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B93">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B95">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B97">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B99">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100">
         <v>9</v>
       </c>
-      <c r="B100">
-        <v>16</v>
-      </c>
       <c r="C100">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B101">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103">
         <v>9</v>
       </c>
-      <c r="B102">
-        <v>3</v>
-      </c>
-      <c r="C102">
+      <c r="C103">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105">
         <v>2</v>
+      </c>
+      <c r="C105">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106">
+        <v>11</v>
+      </c>
+      <c r="C106">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108">
+        <v>9</v>
+      </c>
+      <c r="C108">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109">
+        <v>13</v>
+      </c>
+      <c r="C109">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110">
+        <v>8</v>
+      </c>
+      <c r="C110">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114">
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115">
+        <v>13</v>
+      </c>
+      <c r="C115">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116">
+        <v>9</v>
+      </c>
+      <c r="C116">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117">
+        <v>11</v>
+      </c>
+      <c r="C117">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118">
+        <v>9</v>
+      </c>
+      <c r="C118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119">
+        <v>6</v>
+      </c>
+      <c r="C119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120">
+        <v>8</v>
+      </c>
+      <c r="C120">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+      <c r="C122">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124">
+        <v>13</v>
+      </c>
+      <c r="C124">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125">
+        <v>7</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126">
+        <v>7</v>
+      </c>
+      <c r="C126">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127">
+        <v>8</v>
+      </c>
+      <c r="C127">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128">
+        <v>7</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129">
+        <v>8</v>
+      </c>
+      <c r="C129">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="C132">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134">
+        <v>10</v>
+      </c>
+      <c r="C134">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135">
+        <v>13</v>
+      </c>
+      <c r="C135">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="C137">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138">
+        <v>10</v>
+      </c>
+      <c r="C138">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140">
+        <v>5</v>
+      </c>
+      <c r="C140">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142">
+        <v>4</v>
+      </c>
+      <c r="C142">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143">
+        <v>3</v>
+      </c>
+      <c r="C143">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145">
+        <v>8</v>
+      </c>
+      <c r="C145">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146">
+        <v>13</v>
+      </c>
+      <c r="C146">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>3</v>
+      </c>
+      <c r="B148">
+        <v>13</v>
+      </c>
+      <c r="C148">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149">
+        <v>9</v>
+      </c>
+      <c r="C149">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>3</v>
+      </c>
+      <c r="B150">
+        <v>7</v>
+      </c>
+      <c r="C150">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>3</v>
+      </c>
+      <c r="B151">
+        <v>12</v>
+      </c>
+      <c r="C151">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152">
+        <v>13</v>
+      </c>
+      <c r="C152">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>3</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
+      </c>
+      <c r="C153">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>3</v>
+      </c>
+      <c r="B154">
+        <v>10</v>
+      </c>
+      <c r="C154">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>3</v>
+      </c>
+      <c r="B155">
+        <v>3</v>
+      </c>
+      <c r="C155">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>3</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>3</v>
+      </c>
+      <c r="B158">
+        <v>9</v>
+      </c>
+      <c r="C158">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>3</v>
+      </c>
+      <c r="B159">
+        <v>7</v>
+      </c>
+      <c r="C159">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>3</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>3</v>
+      </c>
+      <c r="B161">
+        <v>3</v>
+      </c>
+      <c r="C161">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>3</v>
+      </c>
+      <c r="B162">
+        <v>7</v>
+      </c>
+      <c r="C162">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>3</v>
+      </c>
+      <c r="B163">
+        <v>12</v>
+      </c>
+      <c r="C163">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>3</v>
+      </c>
+      <c r="B164">
+        <v>11</v>
+      </c>
+      <c r="C164">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>3</v>
+      </c>
+      <c r="B165">
+        <v>3</v>
+      </c>
+      <c r="C165">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>3</v>
+      </c>
+      <c r="B166">
+        <v>7</v>
+      </c>
+      <c r="C166">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>3</v>
+      </c>
+      <c r="B167">
+        <v>8</v>
+      </c>
+      <c r="C167">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>3</v>
+      </c>
+      <c r="B168">
+        <v>3</v>
+      </c>
+      <c r="C168">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>3</v>
+      </c>
+      <c r="B169">
+        <v>9</v>
+      </c>
+      <c r="C169">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>3</v>
+      </c>
+      <c r="B170">
+        <v>13</v>
+      </c>
+      <c r="C170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>3</v>
+      </c>
+      <c r="B171">
+        <v>5</v>
+      </c>
+      <c r="C171">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>3</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>3</v>
+      </c>
+      <c r="B173">
+        <v>7</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>3</v>
+      </c>
+      <c r="B174">
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>3</v>
+      </c>
+      <c r="B175">
+        <v>6</v>
+      </c>
+      <c r="C175">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>3</v>
+      </c>
+      <c r="B176">
+        <v>5</v>
+      </c>
+      <c r="C176">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>3</v>
+      </c>
+      <c r="B177">
+        <v>8</v>
+      </c>
+      <c r="C177">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>3</v>
+      </c>
+      <c r="B178">
+        <v>9</v>
+      </c>
+      <c r="C178">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>3</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+      <c r="C179">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>3</v>
+      </c>
+      <c r="B180">
+        <v>7</v>
+      </c>
+      <c r="C180">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>3</v>
+      </c>
+      <c r="B181">
+        <v>11</v>
+      </c>
+      <c r="C181">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>3</v>
+      </c>
+      <c r="B182">
+        <v>8</v>
+      </c>
+      <c r="C182">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>3</v>
+      </c>
+      <c r="B183">
+        <v>9</v>
+      </c>
+      <c r="C183">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>3</v>
+      </c>
+      <c r="B184">
+        <v>4</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>3</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>3</v>
+      </c>
+      <c r="B186">
+        <v>5</v>
+      </c>
+      <c r="C186">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>3</v>
+      </c>
+      <c r="B187">
+        <v>9</v>
+      </c>
+      <c r="C187">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>3</v>
+      </c>
+      <c r="B188">
+        <v>7</v>
+      </c>
+      <c r="C188">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>3</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>3</v>
+      </c>
+      <c r="B190">
+        <v>9</v>
+      </c>
+      <c r="C190">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>3</v>
+      </c>
+      <c r="B191">
+        <v>13</v>
+      </c>
+      <c r="C191">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>3</v>
+      </c>
+      <c r="B192">
+        <v>8</v>
+      </c>
+      <c r="C192">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>3</v>
+      </c>
+      <c r="B193">
+        <v>2</v>
+      </c>
+      <c r="C193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>3</v>
+      </c>
+      <c r="B194">
+        <v>2</v>
+      </c>
+      <c r="C194">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>3</v>
+      </c>
+      <c r="B195">
+        <v>9</v>
+      </c>
+      <c r="C195">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>3</v>
+      </c>
+      <c r="B196">
+        <v>2</v>
+      </c>
+      <c r="C196">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>3</v>
+      </c>
+      <c r="B197">
+        <v>9</v>
+      </c>
+      <c r="C197">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>3</v>
+      </c>
+      <c r="B198">
+        <v>7</v>
+      </c>
+      <c r="C198">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>3</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>3</v>
+      </c>
+      <c r="B200">
+        <v>7</v>
+      </c>
+      <c r="C200">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>3</v>
+      </c>
+      <c r="B201">
+        <v>8</v>
+      </c>
+      <c r="C201">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>3</v>
+      </c>
+      <c r="B202">
+        <v>9</v>
+      </c>
+      <c r="C202">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>3</v>
+      </c>
+      <c r="B203">
+        <v>12</v>
+      </c>
+      <c r="C203">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>3</v>
+      </c>
+      <c r="B204">
+        <v>7</v>
+      </c>
+      <c r="C204">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>3</v>
+      </c>
+      <c r="B205">
+        <v>10</v>
+      </c>
+      <c r="C205">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>3</v>
+      </c>
+      <c r="B206">
+        <v>3</v>
+      </c>
+      <c r="C206">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>3</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>3</v>
+      </c>
+      <c r="B208">
+        <v>8</v>
+      </c>
+      <c r="C208">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>3</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>3</v>
+      </c>
+      <c r="B210">
+        <v>9</v>
+      </c>
+      <c r="C210">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>3</v>
+      </c>
+      <c r="B211">
+        <v>10</v>
+      </c>
+      <c r="C211">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>3</v>
+      </c>
+      <c r="B212">
+        <v>10</v>
+      </c>
+      <c r="C212">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>4</v>
+      </c>
+      <c r="B213">
+        <v>11</v>
+      </c>
+      <c r="C213">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>4</v>
+      </c>
+      <c r="B214">
+        <v>10</v>
+      </c>
+      <c r="C214">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>4</v>
+      </c>
+      <c r="B215">
+        <v>5</v>
+      </c>
+      <c r="C215">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>4</v>
+      </c>
+      <c r="B216">
+        <v>12</v>
+      </c>
+      <c r="C216">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>4</v>
+      </c>
+      <c r="B217">
+        <v>13</v>
+      </c>
+      <c r="C217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>4</v>
+      </c>
+      <c r="B218">
+        <v>6</v>
+      </c>
+      <c r="C218">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1531,30 +2792,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="27">
   <si>
     <t>Time</t>
   </si>
@@ -26,10 +26,52 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>2|13h 37m</t>
+    <t>6|13h 7m</t>
   </si>
   <si>
-    <t>2|14h 12m</t>
+    <t>6|14h 4m</t>
+  </si>
+  <si>
+    <t>6|14h 6m</t>
+  </si>
+  <si>
+    <t>6|14h 10m</t>
+  </si>
+  <si>
+    <t>6|14h 11m</t>
+  </si>
+  <si>
+    <t>14h 19m</t>
+  </si>
+  <si>
+    <t>14h 22m</t>
+  </si>
+  <si>
+    <t>14h 23m</t>
+  </si>
+  <si>
+    <t>14h 31m</t>
+  </si>
+  <si>
+    <t>14h 32m</t>
+  </si>
+  <si>
+    <t>14h 33m</t>
+  </si>
+  <si>
+    <t>14h 49m</t>
+  </si>
+  <si>
+    <t>14h 53m</t>
+  </si>
+  <si>
+    <t>15h 6m</t>
+  </si>
+  <si>
+    <t>15h 36m</t>
+  </si>
+  <si>
+    <t>15h 39m</t>
   </si>
   <si>
     <t>UserName</t>
@@ -51,6 +93,9 @@
   </si>
   <si>
     <t>Huu Thanh</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -368,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C218"/>
+  <dimension ref="A1:C590"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="C509" sqref="C509"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
@@ -392,10 +437,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>21.11</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -403,10 +448,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>21.37</v>
       </c>
       <c r="C3">
-        <v>49</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -414,10 +459,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>21.4</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -425,10 +470,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>20.49</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -436,10 +481,10 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>21.46</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -447,10 +492,10 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>21.35</v>
       </c>
       <c r="C7">
-        <v>37</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -458,10 +503,10 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>21.33</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -469,10 +514,10 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>21.46</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -480,10 +525,10 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>21.56</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -491,10 +536,10 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>21.45</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -502,10 +547,10 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>21.43</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -513,10 +558,10 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>21.31</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -524,10 +569,10 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>21.37</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -535,10 +580,10 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>21.32</v>
       </c>
       <c r="C15">
-        <v>44</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -546,10 +591,10 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>21.48</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -557,10 +602,10 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>13</v>
+        <v>21.28</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -568,10 +613,10 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>21.49</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -579,10 +624,10 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>21.48</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -590,10 +635,10 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>21.18</v>
       </c>
       <c r="C20">
-        <v>47</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -601,10 +646,10 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>21.35</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -612,10 +657,10 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>21.5</v>
       </c>
       <c r="C22">
-        <v>48</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -623,10 +668,10 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>21.33</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -634,10 +679,10 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>21.38</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -645,10 +690,10 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>21.38</v>
       </c>
       <c r="C25">
-        <v>44</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -656,10 +701,10 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>21.31</v>
       </c>
       <c r="C26">
-        <v>38</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -667,10 +712,10 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>21.49</v>
       </c>
       <c r="C27">
-        <v>31</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -678,10 +723,10 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>21.3</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -689,10 +734,10 @@
         <v>3</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>21.33</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -700,10 +745,10 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>21.33</v>
       </c>
       <c r="C30">
-        <v>49</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -711,10 +756,10 @@
         <v>3</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>21.41</v>
       </c>
       <c r="C31">
-        <v>35</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -722,10 +767,10 @@
         <v>3</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>21.35</v>
       </c>
       <c r="C32">
-        <v>39</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -733,10 +778,10 @@
         <v>3</v>
       </c>
       <c r="B33">
-        <v>13</v>
+        <v>21.4</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -744,10 +789,10 @@
         <v>3</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>20.86</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -755,10 +800,10 @@
         <v>3</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>20.74</v>
       </c>
       <c r="C35">
-        <v>44</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -766,10 +811,10 @@
         <v>3</v>
       </c>
       <c r="B36">
-        <v>7</v>
+        <v>20.99</v>
       </c>
       <c r="C36">
-        <v>21</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -777,10 +822,10 @@
         <v>3</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>20.73</v>
       </c>
       <c r="C37">
-        <v>35</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -788,10 +833,10 @@
         <v>3</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>21.02</v>
       </c>
       <c r="C38">
-        <v>45</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -799,10 +844,10 @@
         <v>3</v>
       </c>
       <c r="B39">
-        <v>13</v>
+        <v>20.53</v>
       </c>
       <c r="C39">
-        <v>18</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -810,10 +855,10 @@
         <v>3</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>20.65</v>
       </c>
       <c r="C40">
-        <v>17</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -821,10 +866,10 @@
         <v>3</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>20.51</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -832,10 +877,10 @@
         <v>3</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>21.41</v>
       </c>
       <c r="C42">
-        <v>47</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -843,10 +888,10 @@
         <v>3</v>
       </c>
       <c r="B43">
-        <v>13</v>
+        <v>21.34</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -854,10 +899,10 @@
         <v>3</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>21.52</v>
       </c>
       <c r="C44">
-        <v>13</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -865,10 +910,10 @@
         <v>3</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>21.36</v>
       </c>
       <c r="C45">
-        <v>32</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -876,10 +921,10 @@
         <v>3</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>21.32</v>
       </c>
       <c r="C46">
-        <v>44</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -887,10 +932,10 @@
         <v>3</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>21.17</v>
       </c>
       <c r="C47">
-        <v>24</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -898,10 +943,10 @@
         <v>3</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>21.41</v>
       </c>
       <c r="C48">
-        <v>18</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -909,10 +954,10 @@
         <v>3</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>21.51</v>
       </c>
       <c r="C49">
-        <v>24</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -920,10 +965,10 @@
         <v>3</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>21.32</v>
       </c>
       <c r="C50">
-        <v>39</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -931,10 +976,10 @@
         <v>3</v>
       </c>
       <c r="B51">
-        <v>9</v>
+        <v>21.49</v>
       </c>
       <c r="C51">
-        <v>7</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -942,10 +987,10 @@
         <v>3</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>21.3</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -953,10 +998,10 @@
         <v>3</v>
       </c>
       <c r="B53">
-        <v>8</v>
+        <v>21.48</v>
       </c>
       <c r="C53">
-        <v>13</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -964,10 +1009,10 @@
         <v>3</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>20.82</v>
       </c>
       <c r="C54">
-        <v>26</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -975,10 +1020,10 @@
         <v>3</v>
       </c>
       <c r="B55">
-        <v>11</v>
+        <v>21.32</v>
       </c>
       <c r="C55">
-        <v>46</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -986,10 +1031,10 @@
         <v>3</v>
       </c>
       <c r="B56">
-        <v>10</v>
+        <v>21.11</v>
       </c>
       <c r="C56">
-        <v>14</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -997,10 +1042,10 @@
         <v>3</v>
       </c>
       <c r="B57">
-        <v>9</v>
+        <v>21.14</v>
       </c>
       <c r="C57">
-        <v>22</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1008,10 +1053,10 @@
         <v>3</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>21.61</v>
       </c>
       <c r="C58">
-        <v>23</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1019,10 +1064,10 @@
         <v>3</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>21.36</v>
       </c>
       <c r="C59">
-        <v>43</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1030,10 +1075,10 @@
         <v>3</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>21.13</v>
       </c>
       <c r="C60">
-        <v>24</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1041,10 +1086,10 @@
         <v>3</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>21.39</v>
       </c>
       <c r="C61">
-        <v>29</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1052,10 +1097,10 @@
         <v>3</v>
       </c>
       <c r="B62">
-        <v>8</v>
+        <v>21.38</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1063,10 +1108,10 @@
         <v>3</v>
       </c>
       <c r="B63">
-        <v>13</v>
+        <v>21.13</v>
       </c>
       <c r="C63">
-        <v>15</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1074,10 +1119,10 @@
         <v>3</v>
       </c>
       <c r="B64">
-        <v>8</v>
+        <v>20.97</v>
       </c>
       <c r="C64">
-        <v>43</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1085,10 +1130,10 @@
         <v>3</v>
       </c>
       <c r="B65">
-        <v>13</v>
+        <v>21.54</v>
       </c>
       <c r="C65">
-        <v>28</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1096,10 +1141,10 @@
         <v>3</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>21.5</v>
       </c>
       <c r="C66">
-        <v>48</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1107,10 +1152,10 @@
         <v>3</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>21.25</v>
       </c>
       <c r="C67">
-        <v>39</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1118,10 +1163,10 @@
         <v>3</v>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>21.57</v>
       </c>
       <c r="C68">
-        <v>6</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1129,10 +1174,10 @@
         <v>3</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>21.38</v>
       </c>
       <c r="C69">
-        <v>29</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1140,10 +1185,10 @@
         <v>3</v>
       </c>
       <c r="B70">
-        <v>10</v>
+        <v>21.52</v>
       </c>
       <c r="C70">
-        <v>44</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1151,10 +1196,10 @@
         <v>3</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>21.46</v>
       </c>
       <c r="C71">
-        <v>28</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1162,10 +1207,10 @@
         <v>3</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>21.4</v>
       </c>
       <c r="C72">
-        <v>45</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1173,10 +1218,10 @@
         <v>3</v>
       </c>
       <c r="B73">
-        <v>9</v>
+        <v>21.34</v>
       </c>
       <c r="C73">
-        <v>12</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1184,10 +1229,10 @@
         <v>3</v>
       </c>
       <c r="B74">
-        <v>8</v>
+        <v>21.31</v>
       </c>
       <c r="C74">
-        <v>12</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1195,10 +1240,10 @@
         <v>3</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>21.39</v>
       </c>
       <c r="C75">
-        <v>21</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1206,10 +1251,10 @@
         <v>3</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>21.42</v>
       </c>
       <c r="C76">
-        <v>30</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1217,10 +1262,10 @@
         <v>3</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>21.34</v>
       </c>
       <c r="C77">
-        <v>17</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1228,10 +1273,10 @@
         <v>3</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>21.61</v>
       </c>
       <c r="C78">
-        <v>30</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1239,10 +1284,10 @@
         <v>3</v>
       </c>
       <c r="B79">
-        <v>8</v>
+        <v>21.48</v>
       </c>
       <c r="C79">
-        <v>16</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1250,10 +1295,10 @@
         <v>3</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>20.65</v>
       </c>
       <c r="C80">
-        <v>35</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1261,10 +1306,10 @@
         <v>3</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>21.46</v>
       </c>
       <c r="C81">
-        <v>42</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1272,10 +1317,10 @@
         <v>3</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>21.33</v>
       </c>
       <c r="C82">
-        <v>43</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1283,10 +1328,10 @@
         <v>3</v>
       </c>
       <c r="B83">
-        <v>9</v>
+        <v>20.9</v>
       </c>
       <c r="C83">
-        <v>42</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1294,10 +1339,10 @@
         <v>3</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>21.21</v>
       </c>
       <c r="C84">
-        <v>24</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1305,10 +1350,10 @@
         <v>3</v>
       </c>
       <c r="B85">
-        <v>10</v>
+        <v>20.77</v>
       </c>
       <c r="C85">
-        <v>10</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1316,10 +1361,10 @@
         <v>3</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>21.6</v>
       </c>
       <c r="C86">
-        <v>9</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1327,10 +1372,10 @@
         <v>3</v>
       </c>
       <c r="B87">
-        <v>9</v>
+        <v>21.64</v>
       </c>
       <c r="C87">
-        <v>22</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1338,10 +1383,10 @@
         <v>3</v>
       </c>
       <c r="B88">
-        <v>11</v>
+        <v>21.53</v>
       </c>
       <c r="C88">
-        <v>10</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1349,10 +1394,10 @@
         <v>3</v>
       </c>
       <c r="B89">
-        <v>8</v>
+        <v>21.61</v>
       </c>
       <c r="C89">
-        <v>12</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1360,10 +1405,10 @@
         <v>3</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>21.48</v>
       </c>
       <c r="C90">
-        <v>23</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1371,10 +1416,10 @@
         <v>3</v>
       </c>
       <c r="B91">
-        <v>8</v>
+        <v>21.4</v>
       </c>
       <c r="C91">
-        <v>12</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1382,10 +1427,10 @@
         <v>3</v>
       </c>
       <c r="B92">
-        <v>8</v>
+        <v>21.57</v>
       </c>
       <c r="C92">
-        <v>43</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1393,10 +1438,10 @@
         <v>3</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>21.5</v>
       </c>
       <c r="C93">
-        <v>46</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1404,10 +1449,10 @@
         <v>3</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>21.5</v>
       </c>
       <c r="C94">
-        <v>43</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1415,10 +1460,10 @@
         <v>3</v>
       </c>
       <c r="B95">
-        <v>12</v>
+        <v>21.39</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1426,10 +1471,10 @@
         <v>3</v>
       </c>
       <c r="B96">
-        <v>6</v>
+        <v>21.56</v>
       </c>
       <c r="C96">
-        <v>5</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1437,10 +1482,10 @@
         <v>3</v>
       </c>
       <c r="B97">
-        <v>5</v>
+        <v>21.51</v>
       </c>
       <c r="C97">
-        <v>5</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1448,10 +1493,10 @@
         <v>3</v>
       </c>
       <c r="B98">
-        <v>10</v>
+        <v>21.52</v>
       </c>
       <c r="C98">
-        <v>19</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1459,10 +1504,10 @@
         <v>3</v>
       </c>
       <c r="B99">
-        <v>6</v>
+        <v>21.54</v>
       </c>
       <c r="C99">
-        <v>12</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -1470,10 +1515,10 @@
         <v>3</v>
       </c>
       <c r="B100">
-        <v>9</v>
+        <v>21.44</v>
       </c>
       <c r="C100">
-        <v>22</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1481,10 +1526,10 @@
         <v>3</v>
       </c>
       <c r="B101">
-        <v>10</v>
+        <v>21.53</v>
       </c>
       <c r="C101">
-        <v>19</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1492,10 +1537,10 @@
         <v>3</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>21.64</v>
       </c>
       <c r="C102">
-        <v>43</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1503,10 +1548,10 @@
         <v>3</v>
       </c>
       <c r="B103">
-        <v>9</v>
+        <v>21.34</v>
       </c>
       <c r="C103">
-        <v>22</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1514,10 +1559,10 @@
         <v>3</v>
       </c>
       <c r="B104">
-        <v>5</v>
+        <v>21.46</v>
       </c>
       <c r="C104">
-        <v>24</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1525,10 +1570,10 @@
         <v>3</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>21.17</v>
       </c>
       <c r="C105">
-        <v>24</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1536,10 +1581,10 @@
         <v>3</v>
       </c>
       <c r="B106">
-        <v>11</v>
+        <v>21.36</v>
       </c>
       <c r="C106">
-        <v>27</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1547,10 +1592,10 @@
         <v>3</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>21.01</v>
       </c>
       <c r="C107">
-        <v>14</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -1558,1220 +1603,5312 @@
         <v>3</v>
       </c>
       <c r="B108">
-        <v>9</v>
+        <v>21.29</v>
       </c>
       <c r="C108">
-        <v>12</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B109">
-        <v>13</v>
+        <v>21.58</v>
       </c>
       <c r="C109">
-        <v>17</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B110">
-        <v>8</v>
+        <v>20.91</v>
       </c>
       <c r="C110">
-        <v>26</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>21.06</v>
       </c>
       <c r="C111">
-        <v>45</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B112">
-        <v>4</v>
+        <v>21.34</v>
       </c>
       <c r="C112">
-        <v>22</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B113">
-        <v>5</v>
+        <v>21.13</v>
       </c>
       <c r="C113">
-        <v>5</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>21.61</v>
       </c>
       <c r="C114">
-        <v>29</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B115">
-        <v>13</v>
+        <v>21.56</v>
       </c>
       <c r="C115">
-        <v>15</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B116">
-        <v>9</v>
+        <v>21.39</v>
       </c>
       <c r="C116">
-        <v>12</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B117">
-        <v>11</v>
+        <v>21.6</v>
       </c>
       <c r="C117">
-        <v>17</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B118">
-        <v>9</v>
+        <v>21.35</v>
       </c>
       <c r="C118">
-        <v>7</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>21.36</v>
       </c>
       <c r="C119">
-        <v>5</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B120">
-        <v>8</v>
+        <v>21.08</v>
       </c>
       <c r="C120">
-        <v>38</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B121">
-        <v>3</v>
+        <v>21.6</v>
       </c>
       <c r="C121">
-        <v>30</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B122">
-        <v>3</v>
+        <v>21.49</v>
       </c>
       <c r="C122">
-        <v>30</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>21.56</v>
       </c>
       <c r="C123">
-        <v>30</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B124">
-        <v>13</v>
+        <v>21.39</v>
       </c>
       <c r="C124">
-        <v>28</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B125">
-        <v>7</v>
+        <v>21.37</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B126">
-        <v>7</v>
+        <v>21.41</v>
       </c>
       <c r="C126">
-        <v>21</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B127">
-        <v>8</v>
+        <v>21.64</v>
       </c>
       <c r="C127">
-        <v>14</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B128">
-        <v>7</v>
+        <v>21.56</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B129">
-        <v>8</v>
+        <v>20.63</v>
       </c>
       <c r="C129">
-        <v>14</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>21.14</v>
       </c>
       <c r="C130">
-        <v>30</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>21.16</v>
       </c>
       <c r="C131">
-        <v>23</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>21.01</v>
       </c>
       <c r="C132">
-        <v>48</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>21.23</v>
       </c>
       <c r="C133">
-        <v>17</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B134">
-        <v>10</v>
+        <v>21.24</v>
       </c>
       <c r="C134">
-        <v>21</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B135">
-        <v>13</v>
+        <v>21.56</v>
       </c>
       <c r="C135">
-        <v>22</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B136">
-        <v>4</v>
+        <v>21.57</v>
       </c>
       <c r="C136">
-        <v>13</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>21.49</v>
       </c>
       <c r="C137">
-        <v>48</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B138">
-        <v>10</v>
+        <v>21.39</v>
       </c>
       <c r="C138">
-        <v>23</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>21.42</v>
       </c>
       <c r="C139">
-        <v>24</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B140">
-        <v>5</v>
+        <v>21.6</v>
       </c>
       <c r="C140">
-        <v>29</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>21.51</v>
       </c>
       <c r="C141">
-        <v>37</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B142">
-        <v>4</v>
+        <v>21.61</v>
       </c>
       <c r="C142">
-        <v>29</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B143">
-        <v>3</v>
+        <v>21.59</v>
       </c>
       <c r="C143">
-        <v>45</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>21.51</v>
       </c>
       <c r="C144">
-        <v>30</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B145">
-        <v>8</v>
+        <v>21.49</v>
       </c>
       <c r="C145">
-        <v>43</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B146">
-        <v>13</v>
+        <v>21.38</v>
       </c>
       <c r="C146">
-        <v>17</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>21.59</v>
       </c>
       <c r="C147">
-        <v>14</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B148">
-        <v>13</v>
+        <v>21.51</v>
       </c>
       <c r="C148">
-        <v>39</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B149">
-        <v>9</v>
+        <v>21.56</v>
       </c>
       <c r="C149">
-        <v>22</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B150">
-        <v>7</v>
+        <v>21.61</v>
       </c>
       <c r="C150">
-        <v>27</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B151">
-        <v>12</v>
+        <v>21.4</v>
       </c>
       <c r="C151">
-        <v>31</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B152">
-        <v>13</v>
+        <v>21.41</v>
       </c>
       <c r="C152">
-        <v>17</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B153">
-        <v>2</v>
+        <v>21.41</v>
       </c>
       <c r="C153">
-        <v>28</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B154">
-        <v>10</v>
+        <v>14.15</v>
       </c>
       <c r="C154">
-        <v>35</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B155">
-        <v>3</v>
+        <v>20.94</v>
       </c>
       <c r="C155">
-        <v>45</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>21.08</v>
       </c>
       <c r="C156">
-        <v>17</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>21.19</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B158">
-        <v>9</v>
+        <v>21.11</v>
       </c>
       <c r="C158">
-        <v>36</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B159">
-        <v>7</v>
+        <v>21.35</v>
       </c>
       <c r="C159">
-        <v>44</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>20.6</v>
       </c>
       <c r="C160">
-        <v>37</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B161">
-        <v>3</v>
+        <v>14.12</v>
       </c>
       <c r="C161">
-        <v>34</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B162">
-        <v>7</v>
+        <v>21.17</v>
       </c>
       <c r="C162">
-        <v>44</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B163">
-        <v>12</v>
+        <v>21.4</v>
       </c>
       <c r="C163">
-        <v>43</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B164">
-        <v>11</v>
+        <v>21.36</v>
       </c>
       <c r="C164">
-        <v>38</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B165">
-        <v>3</v>
+        <v>21.19</v>
       </c>
       <c r="C165">
-        <v>46</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B166">
-        <v>7</v>
+        <v>21.3</v>
       </c>
       <c r="C166">
-        <v>49</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B167">
-        <v>8</v>
+        <v>21.3</v>
       </c>
       <c r="C167">
-        <v>22</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B168">
-        <v>3</v>
+        <v>21.24</v>
       </c>
       <c r="C168">
-        <v>20</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B169">
-        <v>9</v>
+        <v>21.25</v>
       </c>
       <c r="C169">
-        <v>7</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B170">
-        <v>13</v>
+        <v>21.27</v>
       </c>
       <c r="C170">
-        <v>7</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B171">
-        <v>5</v>
+        <v>21.39</v>
       </c>
       <c r="C171">
-        <v>24</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>21.37</v>
       </c>
       <c r="C172">
-        <v>23</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B173">
-        <v>7</v>
+        <v>21.25</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B174">
-        <v>3</v>
+        <v>21.22</v>
       </c>
       <c r="C174">
-        <v>46</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B175">
-        <v>6</v>
+        <v>21.38</v>
       </c>
       <c r="C175">
-        <v>24</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B176">
-        <v>5</v>
+        <v>21.44</v>
       </c>
       <c r="C176">
-        <v>37</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B177">
-        <v>8</v>
+        <v>21.44</v>
       </c>
       <c r="C177">
-        <v>32</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B178">
-        <v>9</v>
+        <v>21.26</v>
       </c>
       <c r="C178">
-        <v>12</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>21.22</v>
       </c>
       <c r="C179">
-        <v>24</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B180">
-        <v>7</v>
+        <v>21.34</v>
       </c>
       <c r="C180">
-        <v>44</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B181">
-        <v>11</v>
+        <v>21.3</v>
       </c>
       <c r="C181">
-        <v>46</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B182">
-        <v>8</v>
+        <v>21.37</v>
       </c>
       <c r="C182">
-        <v>32</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B183">
-        <v>9</v>
+        <v>21.44</v>
       </c>
       <c r="C183">
-        <v>10</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B184">
-        <v>4</v>
+        <v>21.25</v>
       </c>
       <c r="C184">
-        <v>3</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>21.24</v>
       </c>
       <c r="C185">
-        <v>17</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B186">
-        <v>5</v>
+        <v>21.21</v>
       </c>
       <c r="C186">
-        <v>39</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B187">
-        <v>9</v>
+        <v>21.37</v>
       </c>
       <c r="C187">
-        <v>36</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B188">
-        <v>7</v>
+        <v>21.29</v>
       </c>
       <c r="C188">
-        <v>49</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>21.23</v>
       </c>
       <c r="C189">
-        <v>30</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B190">
-        <v>9</v>
+        <v>21.41</v>
       </c>
       <c r="C190">
-        <v>42</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B191">
-        <v>13</v>
+        <v>21.24</v>
       </c>
       <c r="C191">
-        <v>41</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B192">
-        <v>8</v>
+        <v>21.27</v>
       </c>
       <c r="C192">
-        <v>43</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B193">
-        <v>2</v>
+        <v>21.19</v>
       </c>
       <c r="C193">
-        <v>4</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B194">
-        <v>2</v>
+        <v>21.18</v>
       </c>
       <c r="C194">
-        <v>42</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B195">
-        <v>9</v>
+        <v>21.42</v>
       </c>
       <c r="C195">
-        <v>33</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>21.35</v>
       </c>
       <c r="C196">
-        <v>28</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B197">
-        <v>9</v>
+        <v>21.22</v>
       </c>
       <c r="C197">
-        <v>42</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B198">
-        <v>7</v>
+        <v>21.18</v>
       </c>
       <c r="C198">
-        <v>49</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>21.43</v>
       </c>
       <c r="C199">
-        <v>37</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B200">
-        <v>7</v>
+        <v>21.19</v>
       </c>
       <c r="C200">
-        <v>19</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B201">
-        <v>8</v>
+        <v>21.37</v>
       </c>
       <c r="C201">
-        <v>5</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B202">
-        <v>9</v>
+        <v>21.44</v>
       </c>
       <c r="C202">
-        <v>12</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B203">
-        <v>12</v>
+        <v>21.21</v>
       </c>
       <c r="C203">
-        <v>31</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B204">
-        <v>7</v>
+        <v>21.4</v>
       </c>
       <c r="C204">
-        <v>21</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B205">
-        <v>10</v>
+        <v>21.36</v>
       </c>
       <c r="C205">
-        <v>35</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B206">
-        <v>3</v>
+        <v>21.44</v>
       </c>
       <c r="C206">
-        <v>30</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B207">
-        <v>0</v>
+        <v>21.44</v>
       </c>
       <c r="C207">
-        <v>21</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B208">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C208">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>21.31</v>
       </c>
       <c r="C209">
-        <v>28</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B210">
-        <v>9</v>
+        <v>21.31</v>
       </c>
       <c r="C210">
-        <v>10</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B211">
-        <v>10</v>
+        <v>21.22</v>
       </c>
       <c r="C211">
-        <v>29</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B212">
-        <v>10</v>
+        <v>21.22</v>
       </c>
       <c r="C212">
-        <v>10</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B213">
-        <v>11</v>
+        <v>21.32</v>
       </c>
       <c r="C213">
-        <v>6</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B214">
-        <v>10</v>
+        <v>21.32</v>
       </c>
       <c r="C214">
-        <v>15</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B215">
-        <v>5</v>
+        <v>21.21</v>
       </c>
       <c r="C215">
-        <v>39</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B216">
-        <v>12</v>
+        <v>21.21</v>
       </c>
       <c r="C216">
-        <v>31</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B217">
-        <v>13</v>
+        <v>21.21</v>
       </c>
       <c r="C217">
-        <v>2</v>
+        <v>-127</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B218">
-        <v>6</v>
+        <v>21.21</v>
       </c>
       <c r="C218">
-        <v>32</v>
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>17</v>
+      </c>
+      <c r="B219">
+        <v>21.2</v>
+      </c>
+      <c r="C219">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>17</v>
+      </c>
+      <c r="B220">
+        <v>21.2</v>
+      </c>
+      <c r="C220">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>17</v>
+      </c>
+      <c r="B221">
+        <v>21.25</v>
+      </c>
+      <c r="C221">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>17</v>
+      </c>
+      <c r="B222">
+        <v>21.25</v>
+      </c>
+      <c r="C222">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>17</v>
+      </c>
+      <c r="B223">
+        <v>21.2</v>
+      </c>
+      <c r="C223">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>17</v>
+      </c>
+      <c r="B224">
+        <v>21.2</v>
+      </c>
+      <c r="C224">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>17</v>
+      </c>
+      <c r="B225">
+        <v>21.25</v>
+      </c>
+      <c r="C225">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>17</v>
+      </c>
+      <c r="B226">
+        <v>21.25</v>
+      </c>
+      <c r="C226">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>18</v>
+      </c>
+      <c r="B227">
+        <v>21.12</v>
+      </c>
+      <c r="C227">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>18</v>
+      </c>
+      <c r="B228">
+        <v>21.37</v>
+      </c>
+      <c r="C228">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>18</v>
+      </c>
+      <c r="B229">
+        <v>21.39</v>
+      </c>
+      <c r="C229">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>18</v>
+      </c>
+      <c r="B230">
+        <v>21.25</v>
+      </c>
+      <c r="C230">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>18</v>
+      </c>
+      <c r="B231">
+        <v>21.3</v>
+      </c>
+      <c r="C231">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>18</v>
+      </c>
+      <c r="B232">
+        <v>21.18</v>
+      </c>
+      <c r="C232">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>18</v>
+      </c>
+      <c r="B233">
+        <v>21.33</v>
+      </c>
+      <c r="C233">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>18</v>
+      </c>
+      <c r="B234">
+        <v>21.23</v>
+      </c>
+      <c r="C234">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>18</v>
+      </c>
+      <c r="B235">
+        <v>21.21</v>
+      </c>
+      <c r="C235">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>18</v>
+      </c>
+      <c r="B236">
+        <v>21.21</v>
+      </c>
+      <c r="C236">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>18</v>
+      </c>
+      <c r="B237">
+        <v>21.22</v>
+      </c>
+      <c r="C237">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>18</v>
+      </c>
+      <c r="B238">
+        <v>21.25</v>
+      </c>
+      <c r="C238">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>18</v>
+      </c>
+      <c r="B239">
+        <v>21.36</v>
+      </c>
+      <c r="C239">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>18</v>
+      </c>
+      <c r="B240">
+        <v>21.2</v>
+      </c>
+      <c r="C240">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>18</v>
+      </c>
+      <c r="B241">
+        <v>21.21</v>
+      </c>
+      <c r="C241">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>18</v>
+      </c>
+      <c r="B242">
+        <v>21.21</v>
+      </c>
+      <c r="C242">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>18</v>
+      </c>
+      <c r="B243">
+        <v>21.34</v>
+      </c>
+      <c r="C243">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>18</v>
+      </c>
+      <c r="B244">
+        <v>21.31</v>
+      </c>
+      <c r="C244">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>18</v>
+      </c>
+      <c r="B245">
+        <v>21.32</v>
+      </c>
+      <c r="C245">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>18</v>
+      </c>
+      <c r="B246">
+        <v>21.21</v>
+      </c>
+      <c r="C246">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>18</v>
+      </c>
+      <c r="B247">
+        <v>21.38</v>
+      </c>
+      <c r="C247">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>18</v>
+      </c>
+      <c r="B248">
+        <v>21.24</v>
+      </c>
+      <c r="C248">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>18</v>
+      </c>
+      <c r="B249">
+        <v>21.21</v>
+      </c>
+      <c r="C249">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>18</v>
+      </c>
+      <c r="B250">
+        <v>21.34</v>
+      </c>
+      <c r="C250">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>18</v>
+      </c>
+      <c r="B251">
+        <v>21.21</v>
+      </c>
+      <c r="C251">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>18</v>
+      </c>
+      <c r="B252">
+        <v>21.2</v>
+      </c>
+      <c r="C252">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>18</v>
+      </c>
+      <c r="B253">
+        <v>21.37</v>
+      </c>
+      <c r="C253">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>18</v>
+      </c>
+      <c r="B254">
+        <v>21.22</v>
+      </c>
+      <c r="C254">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>18</v>
+      </c>
+      <c r="B255">
+        <v>21.31</v>
+      </c>
+      <c r="C255">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>18</v>
+      </c>
+      <c r="B256">
+        <v>21.23</v>
+      </c>
+      <c r="C256">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>18</v>
+      </c>
+      <c r="B257">
+        <v>21.18</v>
+      </c>
+      <c r="C257">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>18</v>
+      </c>
+      <c r="B258">
+        <v>21.31</v>
+      </c>
+      <c r="C258">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>18</v>
+      </c>
+      <c r="B259">
+        <v>21.34</v>
+      </c>
+      <c r="C259">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>18</v>
+      </c>
+      <c r="B260">
+        <v>21.21</v>
+      </c>
+      <c r="C260">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>18</v>
+      </c>
+      <c r="B261">
+        <v>21.35</v>
+      </c>
+      <c r="C261">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>18</v>
+      </c>
+      <c r="B262">
+        <v>21.2</v>
+      </c>
+      <c r="C262">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>18</v>
+      </c>
+      <c r="B263">
+        <v>21.21</v>
+      </c>
+      <c r="C263">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>18</v>
+      </c>
+      <c r="B264">
+        <v>21.19</v>
+      </c>
+      <c r="C264">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>18</v>
+      </c>
+      <c r="B265">
+        <v>21.28</v>
+      </c>
+      <c r="C265">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>18</v>
+      </c>
+      <c r="B266">
+        <v>21.2</v>
+      </c>
+      <c r="C266">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>18</v>
+      </c>
+      <c r="B267">
+        <v>21.36</v>
+      </c>
+      <c r="C267">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>18</v>
+      </c>
+      <c r="B268">
+        <v>21.32</v>
+      </c>
+      <c r="C268">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>18</v>
+      </c>
+      <c r="B269">
+        <v>21.34</v>
+      </c>
+      <c r="C269">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>18</v>
+      </c>
+      <c r="B270">
+        <v>21.22</v>
+      </c>
+      <c r="C270">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>18</v>
+      </c>
+      <c r="B271">
+        <v>21.24</v>
+      </c>
+      <c r="C271">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>18</v>
+      </c>
+      <c r="B272">
+        <v>21.36</v>
+      </c>
+      <c r="C272">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>18</v>
+      </c>
+      <c r="B273">
+        <v>21.37</v>
+      </c>
+      <c r="C273">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>18</v>
+      </c>
+      <c r="B274">
+        <v>21.22</v>
+      </c>
+      <c r="C274">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>18</v>
+      </c>
+      <c r="B275">
+        <v>21.23</v>
+      </c>
+      <c r="C275">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>18</v>
+      </c>
+      <c r="B276">
+        <v>21.38</v>
+      </c>
+      <c r="C276">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>18</v>
+      </c>
+      <c r="B277">
+        <v>21.35</v>
+      </c>
+      <c r="C277">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>18</v>
+      </c>
+      <c r="B278">
+        <v>21.21</v>
+      </c>
+      <c r="C278">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>18</v>
+      </c>
+      <c r="B279">
+        <v>21.36</v>
+      </c>
+      <c r="C279">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>18</v>
+      </c>
+      <c r="B280">
+        <v>21.27</v>
+      </c>
+      <c r="C280">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>18</v>
+      </c>
+      <c r="B281">
+        <v>21.24</v>
+      </c>
+      <c r="C281">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>18</v>
+      </c>
+      <c r="B282">
+        <v>21.23</v>
+      </c>
+      <c r="C282">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>18</v>
+      </c>
+      <c r="B283">
+        <v>21.38</v>
+      </c>
+      <c r="C283">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>18</v>
+      </c>
+      <c r="B284">
+        <v>21.3</v>
+      </c>
+      <c r="C284">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>18</v>
+      </c>
+      <c r="B285">
+        <v>21.4</v>
+      </c>
+      <c r="C285">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>18</v>
+      </c>
+      <c r="B286">
+        <v>21.32</v>
+      </c>
+      <c r="C286">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>18</v>
+      </c>
+      <c r="B287">
+        <v>21.29</v>
+      </c>
+      <c r="C287">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>18</v>
+      </c>
+      <c r="B288">
+        <v>21.26</v>
+      </c>
+      <c r="C288">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>18</v>
+      </c>
+      <c r="B289">
+        <v>21.21</v>
+      </c>
+      <c r="C289">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>18</v>
+      </c>
+      <c r="B290">
+        <v>21.31</v>
+      </c>
+      <c r="C290">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>18</v>
+      </c>
+      <c r="B291">
+        <v>21.3</v>
+      </c>
+      <c r="C291">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>18</v>
+      </c>
+      <c r="B292">
+        <v>21.37</v>
+      </c>
+      <c r="C292">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>18</v>
+      </c>
+      <c r="B293">
+        <v>21.27</v>
+      </c>
+      <c r="C293">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>18</v>
+      </c>
+      <c r="B294">
+        <v>21.22</v>
+      </c>
+      <c r="C294">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>18</v>
+      </c>
+      <c r="B295">
+        <v>21.2</v>
+      </c>
+      <c r="C295">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>18</v>
+      </c>
+      <c r="B296">
+        <v>21.39</v>
+      </c>
+      <c r="C296">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>18</v>
+      </c>
+      <c r="B297">
+        <v>21.35</v>
+      </c>
+      <c r="C297">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>18</v>
+      </c>
+      <c r="B298">
+        <v>21.2</v>
+      </c>
+      <c r="C298">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>18</v>
+      </c>
+      <c r="B299">
+        <v>21.21</v>
+      </c>
+      <c r="C299">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>18</v>
+      </c>
+      <c r="B300">
+        <v>21.38</v>
+      </c>
+      <c r="C300">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>18</v>
+      </c>
+      <c r="B301">
+        <v>21.21</v>
+      </c>
+      <c r="C301">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>18</v>
+      </c>
+      <c r="B302">
+        <v>21.19</v>
+      </c>
+      <c r="C302">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>18</v>
+      </c>
+      <c r="B303">
+        <v>21.31</v>
+      </c>
+      <c r="C303">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>18</v>
+      </c>
+      <c r="B304">
+        <v>21.26</v>
+      </c>
+      <c r="C304">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>18</v>
+      </c>
+      <c r="B305">
+        <v>21.27</v>
+      </c>
+      <c r="C305">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>18</v>
+      </c>
+      <c r="B306">
+        <v>21.22</v>
+      </c>
+      <c r="C306">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>18</v>
+      </c>
+      <c r="B307">
+        <v>21.34</v>
+      </c>
+      <c r="C307">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>18</v>
+      </c>
+      <c r="B308">
+        <v>21.33</v>
+      </c>
+      <c r="C308">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>18</v>
+      </c>
+      <c r="B309">
+        <v>21.2</v>
+      </c>
+      <c r="C309">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>18</v>
+      </c>
+      <c r="B310">
+        <v>21.38</v>
+      </c>
+      <c r="C310">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>18</v>
+      </c>
+      <c r="B311">
+        <v>21.24</v>
+      </c>
+      <c r="C311">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>18</v>
+      </c>
+      <c r="B312">
+        <v>21.39</v>
+      </c>
+      <c r="C312">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>18</v>
+      </c>
+      <c r="B313">
+        <v>21.23</v>
+      </c>
+      <c r="C313">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>18</v>
+      </c>
+      <c r="B314">
+        <v>21.21</v>
+      </c>
+      <c r="C314">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>18</v>
+      </c>
+      <c r="B315">
+        <v>21.27</v>
+      </c>
+      <c r="C315">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>18</v>
+      </c>
+      <c r="B316">
+        <v>21.2</v>
+      </c>
+      <c r="C316">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>18</v>
+      </c>
+      <c r="B317">
+        <v>21.19</v>
+      </c>
+      <c r="C317">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>18</v>
+      </c>
+      <c r="B318">
+        <v>21.22</v>
+      </c>
+      <c r="C318">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>18</v>
+      </c>
+      <c r="B319">
+        <v>21.36</v>
+      </c>
+      <c r="C319">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>18</v>
+      </c>
+      <c r="B320">
+        <v>21.25</v>
+      </c>
+      <c r="C320">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>18</v>
+      </c>
+      <c r="B321">
+        <v>21.33</v>
+      </c>
+      <c r="C321">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>18</v>
+      </c>
+      <c r="B322">
+        <v>21.35</v>
+      </c>
+      <c r="C322">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>18</v>
+      </c>
+      <c r="B323">
+        <v>21.22</v>
+      </c>
+      <c r="C323">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>18</v>
+      </c>
+      <c r="B324">
+        <v>21.21</v>
+      </c>
+      <c r="C324">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>18</v>
+      </c>
+      <c r="B325">
+        <v>21.4</v>
+      </c>
+      <c r="C325">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>18</v>
+      </c>
+      <c r="B326">
+        <v>21.39</v>
+      </c>
+      <c r="C326">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>18</v>
+      </c>
+      <c r="B327">
+        <v>21.2</v>
+      </c>
+      <c r="C327">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>18</v>
+      </c>
+      <c r="B328">
+        <v>21.24</v>
+      </c>
+      <c r="C328">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>18</v>
+      </c>
+      <c r="B329">
+        <v>21.26</v>
+      </c>
+      <c r="C329">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>18</v>
+      </c>
+      <c r="B330">
+        <v>21.25</v>
+      </c>
+      <c r="C330">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>18</v>
+      </c>
+      <c r="B331">
+        <v>21.19</v>
+      </c>
+      <c r="C331">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>18</v>
+      </c>
+      <c r="B332">
+        <v>21.32</v>
+      </c>
+      <c r="C332">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>18</v>
+      </c>
+      <c r="B333">
+        <v>21.2</v>
+      </c>
+      <c r="C333">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>18</v>
+      </c>
+      <c r="B334">
+        <v>21.22</v>
+      </c>
+      <c r="C334">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>18</v>
+      </c>
+      <c r="B335">
+        <v>21.35</v>
+      </c>
+      <c r="C335">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>18</v>
+      </c>
+      <c r="B336">
+        <v>21.31</v>
+      </c>
+      <c r="C336">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>18</v>
+      </c>
+      <c r="B337">
+        <v>21.22</v>
+      </c>
+      <c r="C337">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>18</v>
+      </c>
+      <c r="B338">
+        <v>21.22</v>
+      </c>
+      <c r="C338">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>18</v>
+      </c>
+      <c r="B339">
+        <v>21.4</v>
+      </c>
+      <c r="C339">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>18</v>
+      </c>
+      <c r="B340">
+        <v>21.27</v>
+      </c>
+      <c r="C340">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>18</v>
+      </c>
+      <c r="B341">
+        <v>21.27</v>
+      </c>
+      <c r="C341">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>18</v>
+      </c>
+      <c r="B342">
+        <v>21.36</v>
+      </c>
+      <c r="C342">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>18</v>
+      </c>
+      <c r="B343">
+        <v>21.24</v>
+      </c>
+      <c r="C343">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>18</v>
+      </c>
+      <c r="B344">
+        <v>21.28</v>
+      </c>
+      <c r="C344">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>18</v>
+      </c>
+      <c r="B345">
+        <v>21.25</v>
+      </c>
+      <c r="C345">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>18</v>
+      </c>
+      <c r="B346">
+        <v>21.35</v>
+      </c>
+      <c r="C346">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>18</v>
+      </c>
+      <c r="B347">
+        <v>21.24</v>
+      </c>
+      <c r="C347">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>18</v>
+      </c>
+      <c r="B348">
+        <v>21.29</v>
+      </c>
+      <c r="C348">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>18</v>
+      </c>
+      <c r="B349">
+        <v>21.3</v>
+      </c>
+      <c r="C349">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>18</v>
+      </c>
+      <c r="B350">
+        <v>21.24</v>
+      </c>
+      <c r="C350">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>18</v>
+      </c>
+      <c r="B351">
+        <v>21.37</v>
+      </c>
+      <c r="C351">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>18</v>
+      </c>
+      <c r="B352">
+        <v>21.4</v>
+      </c>
+      <c r="C352">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>18</v>
+      </c>
+      <c r="B353">
+        <v>21.43</v>
+      </c>
+      <c r="C353">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>18</v>
+      </c>
+      <c r="B354">
+        <v>21.23</v>
+      </c>
+      <c r="C354">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>18</v>
+      </c>
+      <c r="B355">
+        <v>21.24</v>
+      </c>
+      <c r="C355">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>18</v>
+      </c>
+      <c r="B356">
+        <v>21.26</v>
+      </c>
+      <c r="C356">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>18</v>
+      </c>
+      <c r="B357">
+        <v>21.24</v>
+      </c>
+      <c r="C357">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>18</v>
+      </c>
+      <c r="B358">
+        <v>21.23</v>
+      </c>
+      <c r="C358">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>18</v>
+      </c>
+      <c r="B359">
+        <v>21.26</v>
+      </c>
+      <c r="C359">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>18</v>
+      </c>
+      <c r="B360">
+        <v>21.34</v>
+      </c>
+      <c r="C360">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>18</v>
+      </c>
+      <c r="B361">
+        <v>21.25</v>
+      </c>
+      <c r="C361">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>18</v>
+      </c>
+      <c r="B362">
+        <v>21.44</v>
+      </c>
+      <c r="C362">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>18</v>
+      </c>
+      <c r="B363">
+        <v>21.41</v>
+      </c>
+      <c r="C363">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>18</v>
+      </c>
+      <c r="B364">
+        <v>21.38</v>
+      </c>
+      <c r="C364">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>18</v>
+      </c>
+      <c r="B365">
+        <v>21.23</v>
+      </c>
+      <c r="C365">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>18</v>
+      </c>
+      <c r="B366">
+        <v>21.23</v>
+      </c>
+      <c r="C366">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>18</v>
+      </c>
+      <c r="B367">
+        <v>21.34</v>
+      </c>
+      <c r="C367">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>18</v>
+      </c>
+      <c r="B368">
+        <v>21.2</v>
+      </c>
+      <c r="C368">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>18</v>
+      </c>
+      <c r="B369">
+        <v>21.26</v>
+      </c>
+      <c r="C369">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>18</v>
+      </c>
+      <c r="B370">
+        <v>21.3</v>
+      </c>
+      <c r="C370">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>18</v>
+      </c>
+      <c r="B371">
+        <v>21.27</v>
+      </c>
+      <c r="C371">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>18</v>
+      </c>
+      <c r="B372">
+        <v>21.3</v>
+      </c>
+      <c r="C372">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>18</v>
+      </c>
+      <c r="B373">
+        <v>21.33</v>
+      </c>
+      <c r="C373">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>18</v>
+      </c>
+      <c r="B374">
+        <v>21.22</v>
+      </c>
+      <c r="C374">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>18</v>
+      </c>
+      <c r="B375">
+        <v>21.34</v>
+      </c>
+      <c r="C375">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>18</v>
+      </c>
+      <c r="B376">
+        <v>21.33</v>
+      </c>
+      <c r="C376">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>18</v>
+      </c>
+      <c r="B377">
+        <v>21.21</v>
+      </c>
+      <c r="C377">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>18</v>
+      </c>
+      <c r="B378">
+        <v>21.2</v>
+      </c>
+      <c r="C378">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>18</v>
+      </c>
+      <c r="B379">
+        <v>21.18</v>
+      </c>
+      <c r="C379">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>18</v>
+      </c>
+      <c r="B380">
+        <v>21.19</v>
+      </c>
+      <c r="C380">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>18</v>
+      </c>
+      <c r="B381">
+        <v>21.33</v>
+      </c>
+      <c r="C381">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>18</v>
+      </c>
+      <c r="B382">
+        <v>21.33</v>
+      </c>
+      <c r="C382">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>18</v>
+      </c>
+      <c r="B383">
+        <v>21.29</v>
+      </c>
+      <c r="C383">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>18</v>
+      </c>
+      <c r="B384">
+        <v>21.35</v>
+      </c>
+      <c r="C384">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>18</v>
+      </c>
+      <c r="B385">
+        <v>21.16</v>
+      </c>
+      <c r="C385">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>18</v>
+      </c>
+      <c r="B386">
+        <v>21.17</v>
+      </c>
+      <c r="C386">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>18</v>
+      </c>
+      <c r="B387">
+        <v>21.21</v>
+      </c>
+      <c r="C387">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>18</v>
+      </c>
+      <c r="B388">
+        <v>21.2</v>
+      </c>
+      <c r="C388">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>18</v>
+      </c>
+      <c r="B389">
+        <v>21.34</v>
+      </c>
+      <c r="C389">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>18</v>
+      </c>
+      <c r="B390">
+        <v>21.16</v>
+      </c>
+      <c r="C390">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>18</v>
+      </c>
+      <c r="B391">
+        <v>21.16</v>
+      </c>
+      <c r="C391">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>18</v>
+      </c>
+      <c r="B392">
+        <v>21.29</v>
+      </c>
+      <c r="C392">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>18</v>
+      </c>
+      <c r="B393">
+        <v>21.14</v>
+      </c>
+      <c r="C393">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>18</v>
+      </c>
+      <c r="B394">
+        <v>21.28</v>
+      </c>
+      <c r="C394">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>18</v>
+      </c>
+      <c r="B395">
+        <v>21.2</v>
+      </c>
+      <c r="C395">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>18</v>
+      </c>
+      <c r="B396">
+        <v>21.33</v>
+      </c>
+      <c r="C396">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>18</v>
+      </c>
+      <c r="B397">
+        <v>21.17</v>
+      </c>
+      <c r="C397">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>18</v>
+      </c>
+      <c r="B398">
+        <v>21.18</v>
+      </c>
+      <c r="C398">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>18</v>
+      </c>
+      <c r="B399">
+        <v>21.1</v>
+      </c>
+      <c r="C399">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>18</v>
+      </c>
+      <c r="B400">
+        <v>21.25</v>
+      </c>
+      <c r="C400">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>18</v>
+      </c>
+      <c r="B401">
+        <v>21.2</v>
+      </c>
+      <c r="C401">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>18</v>
+      </c>
+      <c r="B402">
+        <v>21.14</v>
+      </c>
+      <c r="C402">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>18</v>
+      </c>
+      <c r="B403">
+        <v>21.08</v>
+      </c>
+      <c r="C403">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>18</v>
+      </c>
+      <c r="B404">
+        <v>21.16</v>
+      </c>
+      <c r="C404">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>18</v>
+      </c>
+      <c r="B405">
+        <v>21.18</v>
+      </c>
+      <c r="C405">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>18</v>
+      </c>
+      <c r="B406">
+        <v>21.08</v>
+      </c>
+      <c r="C406">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>18</v>
+      </c>
+      <c r="B407">
+        <v>21.09</v>
+      </c>
+      <c r="C407">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>18</v>
+      </c>
+      <c r="B408">
+        <v>21.11</v>
+      </c>
+      <c r="C408">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>18</v>
+      </c>
+      <c r="B409">
+        <v>21.21</v>
+      </c>
+      <c r="C409">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>18</v>
+      </c>
+      <c r="B410">
+        <v>21.11</v>
+      </c>
+      <c r="C410">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>18</v>
+      </c>
+      <c r="B411">
+        <v>21.27</v>
+      </c>
+      <c r="C411">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>18</v>
+      </c>
+      <c r="B412">
+        <v>21.25</v>
+      </c>
+      <c r="C412">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>18</v>
+      </c>
+      <c r="B413">
+        <v>21.08</v>
+      </c>
+      <c r="C413">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>18</v>
+      </c>
+      <c r="B414">
+        <v>21.08</v>
+      </c>
+      <c r="C414">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>18</v>
+      </c>
+      <c r="B415">
+        <v>21.21</v>
+      </c>
+      <c r="C415">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>18</v>
+      </c>
+      <c r="B416">
+        <v>21.08</v>
+      </c>
+      <c r="C416">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>18</v>
+      </c>
+      <c r="B417">
+        <v>21.09</v>
+      </c>
+      <c r="C417">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>18</v>
+      </c>
+      <c r="B418">
+        <v>21.09</v>
+      </c>
+      <c r="C418">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>18</v>
+      </c>
+      <c r="B419">
+        <v>21.09</v>
+      </c>
+      <c r="C419">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>18</v>
+      </c>
+      <c r="B420">
+        <v>21.08</v>
+      </c>
+      <c r="C420">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>18</v>
+      </c>
+      <c r="B421">
+        <v>21.14</v>
+      </c>
+      <c r="C421">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>18</v>
+      </c>
+      <c r="B422">
+        <v>21.17</v>
+      </c>
+      <c r="C422">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>18</v>
+      </c>
+      <c r="B423">
+        <v>21.09</v>
+      </c>
+      <c r="C423">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>18</v>
+      </c>
+      <c r="B424">
+        <v>21.15</v>
+      </c>
+      <c r="C424">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>18</v>
+      </c>
+      <c r="B425">
+        <v>21.24</v>
+      </c>
+      <c r="C425">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>18</v>
+      </c>
+      <c r="B426">
+        <v>21.11</v>
+      </c>
+      <c r="C426">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>18</v>
+      </c>
+      <c r="B427">
+        <v>21.27</v>
+      </c>
+      <c r="C427">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>18</v>
+      </c>
+      <c r="B428">
+        <v>21.13</v>
+      </c>
+      <c r="C428">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>18</v>
+      </c>
+      <c r="B429">
+        <v>21.15</v>
+      </c>
+      <c r="C429">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>18</v>
+      </c>
+      <c r="B430">
+        <v>21.27</v>
+      </c>
+      <c r="C430">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>18</v>
+      </c>
+      <c r="B431">
+        <v>21.16</v>
+      </c>
+      <c r="C431">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>18</v>
+      </c>
+      <c r="B432">
+        <v>21.26</v>
+      </c>
+      <c r="C432">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>18</v>
+      </c>
+      <c r="B433">
+        <v>21.18</v>
+      </c>
+      <c r="C433">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>18</v>
+      </c>
+      <c r="B434">
+        <v>21.11</v>
+      </c>
+      <c r="C434">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>18</v>
+      </c>
+      <c r="B435">
+        <v>21.15</v>
+      </c>
+      <c r="C435">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>18</v>
+      </c>
+      <c r="B436">
+        <v>21.27</v>
+      </c>
+      <c r="C436">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>18</v>
+      </c>
+      <c r="B437">
+        <v>21.24</v>
+      </c>
+      <c r="C437">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>18</v>
+      </c>
+      <c r="B438">
+        <v>21.18</v>
+      </c>
+      <c r="C438">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>18</v>
+      </c>
+      <c r="B439">
+        <v>21.1</v>
+      </c>
+      <c r="C439">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>18</v>
+      </c>
+      <c r="B440">
+        <v>21.19</v>
+      </c>
+      <c r="C440">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>18</v>
+      </c>
+      <c r="B441">
+        <v>21.11</v>
+      </c>
+      <c r="C441">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>18</v>
+      </c>
+      <c r="B442">
+        <v>21.26</v>
+      </c>
+      <c r="C442">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>18</v>
+      </c>
+      <c r="B443">
+        <v>21.23</v>
+      </c>
+      <c r="C443">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>18</v>
+      </c>
+      <c r="B444">
+        <v>21.17</v>
+      </c>
+      <c r="C444">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>18</v>
+      </c>
+      <c r="B445">
+        <v>21.3</v>
+      </c>
+      <c r="C445">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>18</v>
+      </c>
+      <c r="B446">
+        <v>21.11</v>
+      </c>
+      <c r="C446">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>18</v>
+      </c>
+      <c r="B447">
+        <v>21.27</v>
+      </c>
+      <c r="C447">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>18</v>
+      </c>
+      <c r="B448">
+        <v>21.13</v>
+      </c>
+      <c r="C448">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>18</v>
+      </c>
+      <c r="B449">
+        <v>21.17</v>
+      </c>
+      <c r="C449">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>18</v>
+      </c>
+      <c r="B450">
+        <v>21.25</v>
+      </c>
+      <c r="C450">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>18</v>
+      </c>
+      <c r="B451">
+        <v>21.21</v>
+      </c>
+      <c r="C451">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>18</v>
+      </c>
+      <c r="B452">
+        <v>21.13</v>
+      </c>
+      <c r="C452">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>18</v>
+      </c>
+      <c r="B453">
+        <v>21.12</v>
+      </c>
+      <c r="C453">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>18</v>
+      </c>
+      <c r="B454">
+        <v>21.31</v>
+      </c>
+      <c r="C454">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>18</v>
+      </c>
+      <c r="B455">
+        <v>21.31</v>
+      </c>
+      <c r="C455">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>18</v>
+      </c>
+      <c r="B456">
+        <v>21.18</v>
+      </c>
+      <c r="C456">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>18</v>
+      </c>
+      <c r="B457">
+        <v>21.25</v>
+      </c>
+      <c r="C457">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>18</v>
+      </c>
+      <c r="B458">
+        <v>21.21</v>
+      </c>
+      <c r="C458">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>18</v>
+      </c>
+      <c r="B459">
+        <v>21.27</v>
+      </c>
+      <c r="C459">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>18</v>
+      </c>
+      <c r="B460">
+        <v>21.15</v>
+      </c>
+      <c r="C460">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>18</v>
+      </c>
+      <c r="B461">
+        <v>21.17</v>
+      </c>
+      <c r="C461">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>18</v>
+      </c>
+      <c r="B462">
+        <v>21.3</v>
+      </c>
+      <c r="C462">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>18</v>
+      </c>
+      <c r="B463">
+        <v>21.32</v>
+      </c>
+      <c r="C463">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>18</v>
+      </c>
+      <c r="B464">
+        <v>21.17</v>
+      </c>
+      <c r="C464">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>18</v>
+      </c>
+      <c r="B465">
+        <v>21.15</v>
+      </c>
+      <c r="C465">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>18</v>
+      </c>
+      <c r="B466">
+        <v>21.27</v>
+      </c>
+      <c r="C466">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>18</v>
+      </c>
+      <c r="B467">
+        <v>21.28</v>
+      </c>
+      <c r="C467">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>18</v>
+      </c>
+      <c r="B468">
+        <v>21.18</v>
+      </c>
+      <c r="C468">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>18</v>
+      </c>
+      <c r="B469">
+        <v>21.28</v>
+      </c>
+      <c r="C469">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>18</v>
+      </c>
+      <c r="B470">
+        <v>21.23</v>
+      </c>
+      <c r="C470">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>18</v>
+      </c>
+      <c r="B471">
+        <v>21.28</v>
+      </c>
+      <c r="C471">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>18</v>
+      </c>
+      <c r="B472">
+        <v>21.25</v>
+      </c>
+      <c r="C472">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>18</v>
+      </c>
+      <c r="B473">
+        <v>21.27</v>
+      </c>
+      <c r="C473">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>18</v>
+      </c>
+      <c r="B474">
+        <v>21.21</v>
+      </c>
+      <c r="C474">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>18</v>
+      </c>
+      <c r="B475">
+        <v>21.27</v>
+      </c>
+      <c r="C475">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>18</v>
+      </c>
+      <c r="B476">
+        <v>21.27</v>
+      </c>
+      <c r="C476">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>18</v>
+      </c>
+      <c r="B477">
+        <v>21.19</v>
+      </c>
+      <c r="C477">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>18</v>
+      </c>
+      <c r="B478">
+        <v>21.13</v>
+      </c>
+      <c r="C478">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>18</v>
+      </c>
+      <c r="B479">
+        <v>21.28</v>
+      </c>
+      <c r="C479">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>18</v>
+      </c>
+      <c r="B480">
+        <v>21.17</v>
+      </c>
+      <c r="C480">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>18</v>
+      </c>
+      <c r="B481">
+        <v>21.15</v>
+      </c>
+      <c r="C481">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>18</v>
+      </c>
+      <c r="B482">
+        <v>21.18</v>
+      </c>
+      <c r="C482">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>18</v>
+      </c>
+      <c r="B483">
+        <v>21.27</v>
+      </c>
+      <c r="C483">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>18</v>
+      </c>
+      <c r="B484">
+        <v>21.18</v>
+      </c>
+      <c r="C484">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>18</v>
+      </c>
+      <c r="B485">
+        <v>21.33</v>
+      </c>
+      <c r="C485">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>18</v>
+      </c>
+      <c r="B486">
+        <v>21.17</v>
+      </c>
+      <c r="C486">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>18</v>
+      </c>
+      <c r="B487">
+        <v>21.16</v>
+      </c>
+      <c r="C487">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>18</v>
+      </c>
+      <c r="B488">
+        <v>21.24</v>
+      </c>
+      <c r="C488">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>18</v>
+      </c>
+      <c r="B489">
+        <v>21.15</v>
+      </c>
+      <c r="C489">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>18</v>
+      </c>
+      <c r="B490">
+        <v>21.15</v>
+      </c>
+      <c r="C490">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>18</v>
+      </c>
+      <c r="B491">
+        <v>21.11</v>
+      </c>
+      <c r="C491">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>18</v>
+      </c>
+      <c r="B492">
+        <v>21.28</v>
+      </c>
+      <c r="C492">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>18</v>
+      </c>
+      <c r="B493">
+        <v>21.13</v>
+      </c>
+      <c r="C493">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>18</v>
+      </c>
+      <c r="B494">
+        <v>21.21</v>
+      </c>
+      <c r="C494">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>18</v>
+      </c>
+      <c r="B495">
+        <v>21.22</v>
+      </c>
+      <c r="C495">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>18</v>
+      </c>
+      <c r="B496">
+        <v>21.24</v>
+      </c>
+      <c r="C496">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>18</v>
+      </c>
+      <c r="B497">
+        <v>21.29</v>
+      </c>
+      <c r="C497">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>18</v>
+      </c>
+      <c r="B498">
+        <v>21.12</v>
+      </c>
+      <c r="C498">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>18</v>
+      </c>
+      <c r="B499">
+        <v>21.13</v>
+      </c>
+      <c r="C499">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>18</v>
+      </c>
+      <c r="B500">
+        <v>21.24</v>
+      </c>
+      <c r="C500">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>18</v>
+      </c>
+      <c r="B501">
+        <v>21.16</v>
+      </c>
+      <c r="C501">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>18</v>
+      </c>
+      <c r="B502">
+        <v>21.15</v>
+      </c>
+      <c r="C502">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>18</v>
+      </c>
+      <c r="B503">
+        <v>21.14</v>
+      </c>
+      <c r="C503">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>18</v>
+      </c>
+      <c r="B504">
+        <v>21.13</v>
+      </c>
+      <c r="C504">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>18</v>
+      </c>
+      <c r="B505">
+        <v>21.15</v>
+      </c>
+      <c r="C505">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>18</v>
+      </c>
+      <c r="B506">
+        <v>21.14</v>
+      </c>
+      <c r="C506">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>18</v>
+      </c>
+      <c r="B507">
+        <v>21.31</v>
+      </c>
+      <c r="C507">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>18</v>
+      </c>
+      <c r="B508">
+        <v>21.13</v>
+      </c>
+      <c r="C508">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>18</v>
+      </c>
+      <c r="B509">
+        <v>21.12</v>
+      </c>
+      <c r="C509">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>18</v>
+      </c>
+      <c r="B510">
+        <v>21.3</v>
+      </c>
+      <c r="C510">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>18</v>
+      </c>
+      <c r="B511">
+        <v>21.3</v>
+      </c>
+      <c r="C511">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>18</v>
+      </c>
+      <c r="B512">
+        <v>21.18</v>
+      </c>
+      <c r="C512">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>18</v>
+      </c>
+      <c r="B513">
+        <v>21.3</v>
+      </c>
+      <c r="C513">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>18</v>
+      </c>
+      <c r="B514">
+        <v>21.16</v>
+      </c>
+      <c r="C514">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>18</v>
+      </c>
+      <c r="B515">
+        <v>21.13</v>
+      </c>
+      <c r="C515">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>18</v>
+      </c>
+      <c r="B516">
+        <v>21.18</v>
+      </c>
+      <c r="C516">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>18</v>
+      </c>
+      <c r="B517">
+        <v>21.17</v>
+      </c>
+      <c r="C517">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>18</v>
+      </c>
+      <c r="B518">
+        <v>21.12</v>
+      </c>
+      <c r="C518">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>18</v>
+      </c>
+      <c r="B519">
+        <v>21.19</v>
+      </c>
+      <c r="C519">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>18</v>
+      </c>
+      <c r="B520">
+        <v>21.11</v>
+      </c>
+      <c r="C520">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>18</v>
+      </c>
+      <c r="B521">
+        <v>21.16</v>
+      </c>
+      <c r="C521">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>18</v>
+      </c>
+      <c r="B522">
+        <v>21.09</v>
+      </c>
+      <c r="C522">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>18</v>
+      </c>
+      <c r="B523">
+        <v>21.08</v>
+      </c>
+      <c r="C523">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>18</v>
+      </c>
+      <c r="B524">
+        <v>21.13</v>
+      </c>
+      <c r="C524">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>18</v>
+      </c>
+      <c r="B525">
+        <v>21.09</v>
+      </c>
+      <c r="C525">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>18</v>
+      </c>
+      <c r="B526">
+        <v>21.16</v>
+      </c>
+      <c r="C526">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>18</v>
+      </c>
+      <c r="B527">
+        <v>21.09</v>
+      </c>
+      <c r="C527">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>18</v>
+      </c>
+      <c r="B528">
+        <v>21.16</v>
+      </c>
+      <c r="C528">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>18</v>
+      </c>
+      <c r="B529">
+        <v>21.09</v>
+      </c>
+      <c r="C529">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>18</v>
+      </c>
+      <c r="B530">
+        <v>21.09</v>
+      </c>
+      <c r="C530">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>18</v>
+      </c>
+      <c r="B531">
+        <v>21.12</v>
+      </c>
+      <c r="C531">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>18</v>
+      </c>
+      <c r="B532">
+        <v>21.19</v>
+      </c>
+      <c r="C532">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>18</v>
+      </c>
+      <c r="B533">
+        <v>21.24</v>
+      </c>
+      <c r="C533">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>18</v>
+      </c>
+      <c r="B534">
+        <v>21.22</v>
+      </c>
+      <c r="C534">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>18</v>
+      </c>
+      <c r="B535">
+        <v>21.16</v>
+      </c>
+      <c r="C535">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>18</v>
+      </c>
+      <c r="B536">
+        <v>21.1</v>
+      </c>
+      <c r="C536">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>18</v>
+      </c>
+      <c r="B537">
+        <v>21.09</v>
+      </c>
+      <c r="C537">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>18</v>
+      </c>
+      <c r="B538">
+        <v>21.14</v>
+      </c>
+      <c r="C538">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>18</v>
+      </c>
+      <c r="B539">
+        <v>21.09</v>
+      </c>
+      <c r="C539">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>18</v>
+      </c>
+      <c r="B540">
+        <v>21.19</v>
+      </c>
+      <c r="C540">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>18</v>
+      </c>
+      <c r="B541">
+        <v>21.21</v>
+      </c>
+      <c r="C541">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>18</v>
+      </c>
+      <c r="B542">
+        <v>21.12</v>
+      </c>
+      <c r="C542">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>18</v>
+      </c>
+      <c r="B543">
+        <v>21.14</v>
+      </c>
+      <c r="C543">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>18</v>
+      </c>
+      <c r="B544">
+        <v>21.13</v>
+      </c>
+      <c r="C544">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>18</v>
+      </c>
+      <c r="B545">
+        <v>21.22</v>
+      </c>
+      <c r="C545">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>18</v>
+      </c>
+      <c r="B546">
+        <v>21.19</v>
+      </c>
+      <c r="C546">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>18</v>
+      </c>
+      <c r="B547">
+        <v>21.15</v>
+      </c>
+      <c r="C547">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>18</v>
+      </c>
+      <c r="B548">
+        <v>21.17</v>
+      </c>
+      <c r="C548">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>18</v>
+      </c>
+      <c r="B549">
+        <v>21.19</v>
+      </c>
+      <c r="C549">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>18</v>
+      </c>
+      <c r="B550">
+        <v>21.23</v>
+      </c>
+      <c r="C550">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>18</v>
+      </c>
+      <c r="B551">
+        <v>21.17</v>
+      </c>
+      <c r="C551">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>18</v>
+      </c>
+      <c r="B552">
+        <v>21.25</v>
+      </c>
+      <c r="C552">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>18</v>
+      </c>
+      <c r="B553">
+        <v>21.24</v>
+      </c>
+      <c r="C553">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>18</v>
+      </c>
+      <c r="B554">
+        <v>21.1</v>
+      </c>
+      <c r="C554">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>18</v>
+      </c>
+      <c r="B555">
+        <v>21.1</v>
+      </c>
+      <c r="C555">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>18</v>
+      </c>
+      <c r="B556">
+        <v>21.13</v>
+      </c>
+      <c r="C556">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>18</v>
+      </c>
+      <c r="B557">
+        <v>21.23</v>
+      </c>
+      <c r="C557">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>18</v>
+      </c>
+      <c r="B558">
+        <v>21.25</v>
+      </c>
+      <c r="C558">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>18</v>
+      </c>
+      <c r="B559">
+        <v>21.18</v>
+      </c>
+      <c r="C559">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>18</v>
+      </c>
+      <c r="B560">
+        <v>21.15</v>
+      </c>
+      <c r="C560">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>18</v>
+      </c>
+      <c r="B561">
+        <v>21.12</v>
+      </c>
+      <c r="C561">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>18</v>
+      </c>
+      <c r="B562">
+        <v>21.25</v>
+      </c>
+      <c r="C562">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>18</v>
+      </c>
+      <c r="B563">
+        <v>21.08</v>
+      </c>
+      <c r="C563">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>18</v>
+      </c>
+      <c r="B564">
+        <v>21.2</v>
+      </c>
+      <c r="C564">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>18</v>
+      </c>
+      <c r="B565">
+        <v>21.24</v>
+      </c>
+      <c r="C565">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>18</v>
+      </c>
+      <c r="B566">
+        <v>21.08</v>
+      </c>
+      <c r="C566">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>18</v>
+      </c>
+      <c r="B567">
+        <v>21.19</v>
+      </c>
+      <c r="C567">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>18</v>
+      </c>
+      <c r="B568">
+        <v>21.21</v>
+      </c>
+      <c r="C568">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>18</v>
+      </c>
+      <c r="B569">
+        <v>21.13</v>
+      </c>
+      <c r="C569">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>18</v>
+      </c>
+      <c r="B570">
+        <v>21.18</v>
+      </c>
+      <c r="C570">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>18</v>
+      </c>
+      <c r="B571">
+        <v>21.15</v>
+      </c>
+      <c r="C571">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>18</v>
+      </c>
+      <c r="B572">
+        <v>21.22</v>
+      </c>
+      <c r="C572">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>18</v>
+      </c>
+      <c r="B573">
+        <v>21.25</v>
+      </c>
+      <c r="C573">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>18</v>
+      </c>
+      <c r="B574">
+        <v>21.27</v>
+      </c>
+      <c r="C574">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>18</v>
+      </c>
+      <c r="B575">
+        <v>21.17</v>
+      </c>
+      <c r="C575">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>18</v>
+      </c>
+      <c r="B576">
+        <v>21.22</v>
+      </c>
+      <c r="C576">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>18</v>
+      </c>
+      <c r="B577">
+        <v>21.12</v>
+      </c>
+      <c r="C577">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>18</v>
+      </c>
+      <c r="B578">
+        <v>21.12</v>
+      </c>
+      <c r="C578">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>18</v>
+      </c>
+      <c r="B579">
+        <v>21.09</v>
+      </c>
+      <c r="C579">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>18</v>
+      </c>
+      <c r="B580">
+        <v>21.2</v>
+      </c>
+      <c r="C580">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>18</v>
+      </c>
+      <c r="B581">
+        <v>21.16</v>
+      </c>
+      <c r="C581">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>18</v>
+      </c>
+      <c r="B582">
+        <v>21.24</v>
+      </c>
+      <c r="C582">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>18</v>
+      </c>
+      <c r="B583">
+        <v>21.08</v>
+      </c>
+      <c r="C583">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>18</v>
+      </c>
+      <c r="B584">
+        <v>21.16</v>
+      </c>
+      <c r="C584">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>18</v>
+      </c>
+      <c r="B585">
+        <v>21.16</v>
+      </c>
+      <c r="C585">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>18</v>
+      </c>
+      <c r="B586">
+        <v>21.21</v>
+      </c>
+      <c r="C586">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>18</v>
+      </c>
+      <c r="B587">
+        <v>21.11</v>
+      </c>
+      <c r="C587">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>18</v>
+      </c>
+      <c r="B588">
+        <v>21.08</v>
+      </c>
+      <c r="C588">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>18</v>
+      </c>
+      <c r="B589">
+        <v>21.08</v>
+      </c>
+      <c r="C589">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>18</v>
+      </c>
+      <c r="B590">
+        <v>21.07</v>
+      </c>
+      <c r="C590">
+        <v>-127</v>
       </c>
     </row>
   </sheetData>
@@ -2782,7 +6919,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D19" sqref="D19"/>
@@ -2792,30 +6929,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>UserName</t>
   </si>
@@ -41,7 +41,16 @@
     <t>abc</t>
   </si>
   <si>
-    <t>1h 22m</t>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>9-Sep 2h 56m</t>
   </si>
 </sst>
 </file>
@@ -77,9 +86,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,76 +368,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A11" sqref="A11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
+      <c r="A2" t="s">
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>4.95</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>31.5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
+      <c r="A3" t="s">
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>6.95</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>32.200000000000003</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
+      <c r="A4" t="s">
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>31.3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
+      <c r="A5" t="s">
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>34.5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,21 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="UserInfor" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="Data" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="UserInfor" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>10-Sep 1h 7m</t>
+  </si>
+  <si>
+    <t>10-Sep 1h 8m</t>
+  </si>
+  <si>
+    <t>10-Sep 1h 13m</t>
+  </si>
+  <si>
+    <t>10-Sep 1h 16m</t>
+  </si>
+  <si>
+    <t>10-Sep 1h 18m</t>
+  </si>
+  <si>
+    <t>10-Sep 1h 19m</t>
+  </si>
+  <si>
+    <t>10-Sep 1h 20m</t>
+  </si>
+  <si>
+    <t>10-Sep 1h 22m</t>
+  </si>
   <si>
     <t>UserName</t>
   </si>
@@ -41,16 +74,7 @@
     <t>abc</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>9-Sep 2h 56m</t>
+    <t>HuuThanhHung</t>
   </si>
 </sst>
 </file>
@@ -59,11 +83,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -368,195 +392,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C11"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
         <v>5</v>
-      </c>
-      <c r="C10">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
         <v>11</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,54 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Data" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="UserInfor" state="visible" r:id="rId5"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="UserInfor" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>10-Sep 1h 7m</t>
-  </si>
-  <si>
-    <t>10-Sep 1h 8m</t>
-  </si>
-  <si>
-    <t>10-Sep 1h 13m</t>
-  </si>
-  <si>
-    <t>10-Sep 1h 16m</t>
-  </si>
-  <si>
-    <t>10-Sep 1h 18m</t>
-  </si>
-  <si>
-    <t>10-Sep 1h 19m</t>
-  </si>
-  <si>
-    <t>10-Sep 1h 20m</t>
-  </si>
-  <si>
-    <t>10-Sep 1h 22m</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>UserName</t>
   </si>
@@ -69,12 +36,6 @@
   </si>
   <si>
     <t>Huu Thanh</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>HuuThanhHung</t>
   </si>
 </sst>
 </file>
@@ -83,11 +44,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -392,13 +353,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="A3:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -410,190 +386,22 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2">
-        <v>111</v>
-      </c>
-      <c r="C2">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>111</v>
-      </c>
-      <c r="C3">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>111</v>
-      </c>
-      <c r="C5">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>111</v>
-      </c>
-      <c r="C6">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>111</v>
-      </c>
-      <c r="C7">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>111</v>
-      </c>
-      <c r="C9">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -10,12 +10,21 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="UserInfor" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
   <si>
     <t>UserName</t>
   </si>
@@ -29,13 +38,13 @@
     <t>LastName</t>
   </si>
   <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>Huu Thanh</t>
+  </si>
+  <si>
     <t>Hung</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>Huu Thanh</t>
   </si>
 </sst>
 </file>
@@ -353,14 +362,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="A1:XFD1048576"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -371,37 +398,37 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="A3:E12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="UserInfor" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -38,13 +38,13 @@
     <t>LastName</t>
   </si>
   <si>
+    <t>Hung</t>
+  </si>
+  <si>
     <t>1234</t>
   </si>
   <si>
     <t>Huu Thanh</t>
-  </si>
-  <si>
-    <t>Hung</t>
   </si>
 </sst>
 </file>
@@ -364,8 +364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,10 +381,10 @@
         <v>2</v>
       </c>
       <c r="D1">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="E1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -397,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,16 +419,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="UserInfor" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="Data" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="UserInfor" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>Time</t>
   </si>
@@ -24,6 +24,135 @@
   </si>
   <si>
     <t>Temperature</t>
+  </si>
+  <si>
+    <t>12-Sep 19h 48m</t>
+  </si>
+  <si>
+    <t>12-Sep 19h 51m</t>
+  </si>
+  <si>
+    <t>12-Sep 19h 52m</t>
+  </si>
+  <si>
+    <t>12-Sep 19h 53m</t>
+  </si>
+  <si>
+    <t>12-Sep 19h 57m</t>
+  </si>
+  <si>
+    <t>12-Sep 19h 58m</t>
+  </si>
+  <si>
+    <t>12-Sep 19h 59m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 0m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 1m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 2m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 3m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 4m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 5m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 7m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 11m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 12m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 14m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 16m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 17m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 18m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 19m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 21m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 22m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 24m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 25m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 26m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 28m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 30m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 35m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 37m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 38m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 40m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 41m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 43m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 44m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 45m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 46m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 49m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 50m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 51m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 52m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 55m</t>
+  </si>
+  <si>
+    <t>12-Sep 20h 56m</t>
   </si>
   <si>
     <t>UserName</t>
@@ -53,11 +182,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -362,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -381,15 +510,631 @@
         <v>2</v>
       </c>
       <c r="D1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="E1">
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>111</v>
+      </c>
+      <c r="C2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>111</v>
+      </c>
+      <c r="C3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>111</v>
+      </c>
+      <c r="C5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>111</v>
+      </c>
+      <c r="C9">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>111</v>
+      </c>
+      <c r="C11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>111</v>
+      </c>
+      <c r="C13">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>111</v>
+      </c>
+      <c r="C17">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>111</v>
+      </c>
+      <c r="C19">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>111</v>
+      </c>
+      <c r="C21">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>111</v>
+      </c>
+      <c r="C23">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>111</v>
+      </c>
+      <c r="C24">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>111</v>
+      </c>
+      <c r="C25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>111</v>
+      </c>
+      <c r="C29">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>111</v>
+      </c>
+      <c r="C30">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>111</v>
+      </c>
+      <c r="C32">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34">
+        <v>111</v>
+      </c>
+      <c r="C34">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35">
+        <v>111</v>
+      </c>
+      <c r="C35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37">
+        <v>111</v>
+      </c>
+      <c r="C37">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39">
+        <v>111</v>
+      </c>
+      <c r="C39">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42">
+        <v>111</v>
+      </c>
+      <c r="C42">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43">
+        <v>111</v>
+      </c>
+      <c r="C43">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45">
+        <v>111</v>
+      </c>
+      <c r="C45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46">
+        <v>111</v>
+      </c>
+      <c r="C46">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47">
+        <v>111</v>
+      </c>
+      <c r="C47">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48">
+        <v>111</v>
+      </c>
+      <c r="C48">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50">
+        <v>111</v>
+      </c>
+      <c r="C50">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51">
+        <v>111</v>
+      </c>
+      <c r="C51">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52">
+        <v>111</v>
+      </c>
+      <c r="C52">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54">
+        <v>111</v>
+      </c>
+      <c r="C54">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55">
+        <v>111</v>
+      </c>
+      <c r="C55">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
@@ -397,38 +1142,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E6"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
